--- a/Excel Data/TDR/Enquiries_IBG.xlsx
+++ b/Excel Data/TDR/Enquiries_IBG.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
